--- a/アカウント更新・削除_結合テスト.xlsx
+++ b/アカウント更新・削除_結合テスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/integration-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{70F8FCB8-F725-4146-BBCF-C72DF082692F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A5E43AE-7413-4234-B432-D1467BA2C165}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{70F8FCB8-F725-4146-BBCF-C72DF082692F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C143928-2C8B-40F9-8E58-066B364C8BEA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="3" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet6" sheetId="9" r:id="rId1"/>
@@ -5493,8 +5493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A77DA8-5F4F-404D-8533-BC9C291EE38F}">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5545,7 +5545,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5600,7 +5600,7 @@
         <v>151</v>
       </c>
       <c r="G8" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -5649,7 +5649,7 @@
         <v>169</v>
       </c>
       <c r="G11" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>73</v>
@@ -5698,7 +5698,7 @@
         <v>170</v>
       </c>
       <c r="G14" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>73</v>
@@ -5747,7 +5747,7 @@
         <v>98</v>
       </c>
       <c r="G17" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>73</v>
@@ -5796,7 +5796,7 @@
         <v>171</v>
       </c>
       <c r="G20" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>73</v>
@@ -5845,7 +5845,7 @@
         <v>99</v>
       </c>
       <c r="G23" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>73</v>
@@ -5894,7 +5894,7 @@
         <v>108</v>
       </c>
       <c r="G26" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>73</v>
@@ -5943,7 +5943,7 @@
         <v>100</v>
       </c>
       <c r="G29" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>73</v>
@@ -5992,7 +5992,7 @@
         <v>101</v>
       </c>
       <c r="G32" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>73</v>
@@ -6041,7 +6041,7 @@
         <v>172</v>
       </c>
       <c r="G35" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>73</v>
@@ -6090,7 +6090,7 @@
         <v>102</v>
       </c>
       <c r="G38" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>73</v>
@@ -6139,7 +6139,7 @@
         <v>103</v>
       </c>
       <c r="G41" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>73</v>
@@ -6188,7 +6188,7 @@
         <v>104</v>
       </c>
       <c r="G44" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>73</v>
@@ -6237,7 +6237,7 @@
         <v>168</v>
       </c>
       <c r="G47" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>73</v>
@@ -6273,7 +6273,7 @@
         <v>173</v>
       </c>
       <c r="G49" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>73</v>
@@ -6311,7 +6311,7 @@
         <v>239</v>
       </c>
       <c r="G51" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>73</v>
@@ -6351,7 +6351,7 @@
         <v>176</v>
       </c>
       <c r="G53" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>73</v>
@@ -6389,7 +6389,7 @@
         <v>179</v>
       </c>
       <c r="G55" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>73</v>
@@ -6427,7 +6427,7 @@
         <v>174</v>
       </c>
       <c r="G57" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>73</v>
@@ -6463,7 +6463,7 @@
         <v>175</v>
       </c>
       <c r="G59" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>73</v>
@@ -6499,7 +6499,7 @@
         <v>193</v>
       </c>
       <c r="G61" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>73</v>
@@ -6534,8 +6534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C3A01A-A4F6-4174-8DBC-8BCF35A1EEEB}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6546,7 +6546,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -6586,7 +6586,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6641,7 +6641,7 @@
         <v>180</v>
       </c>
       <c r="G8" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -6679,7 +6679,7 @@
         <v>181</v>
       </c>
       <c r="G10" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>73</v>
@@ -6717,7 +6717,7 @@
         <v>234</v>
       </c>
       <c r="G12" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>73</v>
@@ -6755,7 +6755,7 @@
         <v>236</v>
       </c>
       <c r="G14" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>73</v>
@@ -6793,7 +6793,7 @@
         <v>235</v>
       </c>
       <c r="G16" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>73</v>
@@ -6831,7 +6831,7 @@
         <v>182</v>
       </c>
       <c r="G18" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>73</v>
@@ -6869,7 +6869,7 @@
         <v>183</v>
       </c>
       <c r="G20" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>73</v>
@@ -6907,7 +6907,7 @@
         <v>184</v>
       </c>
       <c r="G22" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>73</v>
@@ -6945,7 +6945,7 @@
         <v>185</v>
       </c>
       <c r="G24" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>73</v>
@@ -6983,7 +6983,7 @@
         <v>186</v>
       </c>
       <c r="G26" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>73</v>
@@ -7021,7 +7021,7 @@
         <v>187</v>
       </c>
       <c r="G28" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>73</v>
@@ -7059,7 +7059,7 @@
         <v>188</v>
       </c>
       <c r="G30" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>73</v>
@@ -7097,7 +7097,7 @@
         <v>189</v>
       </c>
       <c r="G32" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>73</v>
@@ -7135,7 +7135,7 @@
         <v>190</v>
       </c>
       <c r="G34" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>73</v>
@@ -7173,7 +7173,7 @@
         <v>191</v>
       </c>
       <c r="G36" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>73</v>
@@ -7211,7 +7211,7 @@
         <v>193</v>
       </c>
       <c r="G38" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>73</v>
@@ -7246,8 +7246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E2BC3D-0A3A-44E9-99FA-65D95F3DCD82}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7258,7 +7258,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -7298,7 +7298,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7353,7 +7353,7 @@
         <v>209</v>
       </c>
       <c r="G11" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>73</v>
@@ -7391,7 +7391,7 @@
         <v>111</v>
       </c>
       <c r="G13" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>73</v>
@@ -7429,7 +7429,7 @@
         <v>120</v>
       </c>
       <c r="G15" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>73</v>
@@ -7467,7 +7467,7 @@
         <v>215</v>
       </c>
       <c r="G17" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>73</v>
@@ -7505,7 +7505,7 @@
         <v>121</v>
       </c>
       <c r="G19" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>73</v>
@@ -7543,7 +7543,7 @@
         <v>129</v>
       </c>
       <c r="G21" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>73</v>
@@ -7581,7 +7581,7 @@
         <v>122</v>
       </c>
       <c r="G23" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>73</v>
@@ -7619,7 +7619,7 @@
         <v>123</v>
       </c>
       <c r="G25" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>73</v>
@@ -7657,7 +7657,7 @@
         <v>216</v>
       </c>
       <c r="G27" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>73</v>
@@ -7695,7 +7695,7 @@
         <v>124</v>
       </c>
       <c r="G29" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>73</v>
@@ -7733,7 +7733,7 @@
         <v>125</v>
       </c>
       <c r="G31" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>73</v>
@@ -7771,7 +7771,7 @@
         <v>126</v>
       </c>
       <c r="G33" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>73</v>
@@ -7809,7 +7809,7 @@
         <v>128</v>
       </c>
       <c r="G35" s="3">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>73</v>
@@ -7843,8 +7843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D17" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7855,7 +7855,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -7895,7 +7895,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7950,7 +7950,7 @@
         <v>81</v>
       </c>
       <c r="G8" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -7999,7 +7999,7 @@
         <v>169</v>
       </c>
       <c r="G11" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>73</v>
@@ -8048,7 +8048,7 @@
         <v>170</v>
       </c>
       <c r="G14" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>73</v>
@@ -8097,7 +8097,7 @@
         <v>98</v>
       </c>
       <c r="G17" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>73</v>
@@ -8146,7 +8146,7 @@
         <v>219</v>
       </c>
       <c r="G20" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>73</v>
@@ -8195,7 +8195,7 @@
         <v>99</v>
       </c>
       <c r="G23" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>73</v>
@@ -8244,7 +8244,7 @@
         <v>227</v>
       </c>
       <c r="G26" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>73</v>
@@ -8282,7 +8282,7 @@
         <v>100</v>
       </c>
       <c r="G28" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>73</v>
@@ -8331,7 +8331,7 @@
         <v>101</v>
       </c>
       <c r="G31" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>73</v>
@@ -8380,7 +8380,7 @@
         <v>172</v>
       </c>
       <c r="G34" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>73</v>
@@ -8429,7 +8429,7 @@
         <v>102</v>
       </c>
       <c r="G37" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>73</v>
@@ -8478,7 +8478,7 @@
         <v>103</v>
       </c>
       <c r="G40" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>73</v>
@@ -8527,7 +8527,7 @@
         <v>104</v>
       </c>
       <c r="G43" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>73</v>
@@ -8576,7 +8576,7 @@
         <v>193</v>
       </c>
       <c r="G46" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>73</v>
@@ -8612,7 +8612,7 @@
         <v>94</v>
       </c>
       <c r="G48" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>73</v>
@@ -8663,7 +8663,7 @@
         <v>241</v>
       </c>
       <c r="G51" s="3">
-        <v>46007</v>
+        <v>46027</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>73</v>
@@ -8698,8 +8698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE28EAC-04E1-4652-A59F-FBA9EA2DB96E}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8710,7 +8710,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -8750,7 +8750,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45826</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8805,7 +8805,7 @@
         <v>92</v>
       </c>
       <c r="G8" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -8856,7 +8856,7 @@
         <v>225</v>
       </c>
       <c r="G11" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>73</v>
@@ -8892,7 +8892,7 @@
         <v>223</v>
       </c>
       <c r="G13" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>73</v>
@@ -8943,7 +8943,7 @@
         <v>193</v>
       </c>
       <c r="G16" s="3">
-        <v>46002</v>
+        <v>46027</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>73</v>
